--- a/CANTIDADES DE PRODUCTOS.xlsx
+++ b/CANTIDADES DE PRODUCTOS.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\taller de programacion 4\SGFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F9361-40DC-479B-94E2-2CE916F26082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
     <sheet name="16-20 agosto 2022" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d&quot; DE &quot;mmmm"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
@@ -442,28 +453,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -543,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -585,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -627,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -669,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -711,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -753,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -795,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -837,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -879,7 +891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -921,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -963,7 +975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1573,7 +1585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1582,13 +1594,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1962,7 +1974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -2397,7 +2409,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>178749</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
